--- a/data/raw_data/ManyPrimates_mp1_datasheet_Doue la Fontaine.xlsx
+++ b/data/raw_data/ManyPrimates_mp1_datasheet_Doue la Fontaine.xlsx
@@ -30333,7 +30333,7 @@
         <v>3.0</v>
       </c>
       <c r="O14" s="16">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="P14" s="16">
         <v>0.0</v>
@@ -30389,7 +30389,7 @@
         <v>2.0</v>
       </c>
       <c r="P15" s="16">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q15" s="15" t="s">
         <v>42</v>
@@ -30439,10 +30439,10 @@
         <v>1.0</v>
       </c>
       <c r="O16" s="16">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="P16" s="16">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q16" s="15" t="s">
         <v>42</v>

--- a/data/raw_data/ManyPrimates_mp1_datasheet_Doue la Fontaine.xlsx
+++ b/data/raw_data/ManyPrimates_mp1_datasheet_Doue la Fontaine.xlsx
@@ -36,6 +36,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">formatted in the following way: YYYYMMDD (e.g. 20180131). </t>
     </r>
     <r>
@@ -89,6 +90,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">block number, </t>
     </r>
     <r>
@@ -98,6 +100,7 @@
       <t>continuous across sessions</t>
     </r>
     <r>
+      <rPr/>
       <t>. Each block must be three trials of the same delay type. Must be numeric</t>
     </r>
   </si>
@@ -106,6 +109,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">trial number, </t>
     </r>
     <r>
@@ -115,6 +119,7 @@
       <t>continuous across sessions</t>
     </r>
     <r>
+      <rPr/>
       <t xml:space="preserve"> (i.e., do not start again with 1). Must be numeric</t>
     </r>
   </si>
@@ -135,6 +140,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">first location indicated by subject </t>
     </r>
     <r>
